--- a/data/traderes/exported_Traderes.xlsx
+++ b/data/traderes/exported_Traderes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\toolbox-amiris-emlab\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\toolbox-amiris-emlab\data\traderes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F5501A3-2827-4FE0-8546-016ED77E7C3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9FDE2BE-D67C-47E0-A9C9-32B59A852AC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="917" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-16515" windowWidth="29040" windowHeight="15840" tabRatio="917" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="explanation" sheetId="1" r:id="rId1"/>
@@ -33,10 +33,10 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">investmentCostsOLD!$A$1:$F$51</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">nodeOLD!$A$1:$C$50</definedName>
   </definedNames>
-  <calcPr calcId="191029" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId16"/>
-    <pivotCache cacheId="1" r:id="rId17"/>
+    <pivotCache cacheId="2" r:id="rId16"/>
+    <pivotCache cacheId="3" r:id="rId17"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -1873,7 +1873,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" textRotation="90" wrapText="1"/>
@@ -2023,6 +2023,7 @@
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Excel Built-in Bad" xfId="9" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
@@ -5046,94 +5047,94 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6542,94 +6543,94 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7443,10 +7444,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8427,7 +8424,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="PivotTable9" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="Values" itemPrintTitles="1" indent="0" compact="0" outline="1" outlineData="1" compactData="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="PivotTable9" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="Values" itemPrintTitles="1" indent="0" compact="0" outline="1" outlineData="1" compactData="0">
   <location ref="A115:C137" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="7">
     <pivotField axis="axisRow" compact="0" showAll="0">
@@ -8497,7 +8494,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0900-000000000000}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="Values" itemPrintTitles="1" indent="0" compact="0" outline="1" outlineData="1" compactData="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0900-000000000000}" name="PivotTable2" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="Values" itemPrintTitles="1" indent="0" compact="0" outline="1" outlineData="1" compactData="0">
   <location ref="G1:K19" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" compact="0" showAll="0">
@@ -10005,23 +10002,23 @@
       </c>
       <c r="B3" s="92" t="e">
         <f>VLOOKUP(B2,nodeOLD!$A$1:$C$16,4,0)</f>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="C3" s="92" t="e">
         <f>VLOOKUP(C2,nodeOLD!$A$1:$C$16,4,0)</f>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="D3" s="92" t="e">
         <f>VLOOKUP(D2,nodeOLD!$A$1:$C$16,4,0)</f>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="E3" s="92" t="e">
         <f>VLOOKUP(E2,nodeOLD!$A$1:$C$16,4,0)</f>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="F3" s="92" t="e">
         <f>VLOOKUP(F2,nodeOLD!$A$1:$C$16,4,0)</f>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="G3" s="92" t="e">
         <f>VLOOKUP(G2,nodeOLD!$A$1:$C$16,4,0)</f>
@@ -10029,11 +10026,11 @@
       </c>
       <c r="H3" s="92" t="e">
         <f>VLOOKUP(H2,nodeOLD!$A$1:$C$16,4,0)</f>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="I3" s="92" t="e">
         <f>VLOOKUP(I2,nodeOLD!$A$1:$C$16,4,0)</f>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="J3" s="92" t="e">
         <f>VLOOKUP(J2,nodeOLD!$A$1:$C$16,4,0)</f>
@@ -10041,11 +10038,11 @@
       </c>
       <c r="K3" s="92" t="e">
         <f>VLOOKUP(K2,nodeOLD!$A$1:$C$16,4,0)</f>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="L3" s="92" t="e">
         <f>VLOOKUP(L2,nodeOLD!$A$1:$C$16,4,0)</f>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="M3" s="92" t="e">
         <f>VLOOKUP(M2,nodeOLD!$A$1:$C$16,4,0)</f>
@@ -10096,11 +10093,11 @@
       </c>
       <c r="H4" s="92" t="e">
         <f>VLOOKUP(H2,nodeOLD!$A$17:$C$30,4,0)</f>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="I4" s="92" t="e">
         <f>VLOOKUP(I2,nodeOLD!$A$17:$C$30,4,0)</f>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="J4" s="92" t="e">
         <f>VLOOKUP(J2,nodeOLD!$A$17:$C$30,4,0)</f>
@@ -10108,23 +10105,23 @@
       </c>
       <c r="K4" s="92" t="e">
         <f>VLOOKUP(K2,nodeOLD!$A$17:$C$30,4,0)</f>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="L4" s="92" t="e">
         <f>VLOOKUP(L2,nodeOLD!$A$17:$C$30,4,0)</f>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="M4" s="92" t="e">
         <f>VLOOKUP(M2,nodeOLD!$A$17:$C$30,4,0)</f>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="N4" s="92" t="e">
         <f>VLOOKUP(N2,nodeOLD!$A$17:$C$30,4,0)</f>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="O4" s="92" t="e">
         <f>VLOOKUP(O2,nodeOLD!$A$17:$C$30,4,0)</f>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="R4" t="s">
         <v>144</v>
@@ -10139,19 +10136,19 @@
       </c>
       <c r="B5" s="92" t="e">
         <f>VLOOKUP(B2,nodeOLD!$A$32:$C$47,4,0)</f>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="C5" s="92" t="e">
         <f>VLOOKUP(C2,nodeOLD!$A$32:$C$47,4,0)</f>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="D5" s="92" t="e">
         <f>VLOOKUP(D2,nodeOLD!$A$32:$C$47,4,0)</f>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="E5" s="92" t="e">
         <f>VLOOKUP(E2,nodeOLD!$A$32:$C$47,4,0)</f>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="F5" s="92" t="e">
         <f>VLOOKUP(F2,nodeOLD!$A$32:$C$47,4,0)</f>
@@ -10159,7 +10156,7 @@
       </c>
       <c r="G5" s="92" t="e">
         <f>VLOOKUP(G2,nodeOLD!$A$32:$C$47,4,0)</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
       <c r="H5" s="92" t="e">
         <f>VLOOKUP(H2,nodeOLD!$A$32:$C$47,4,0)</f>
@@ -10171,7 +10168,7 @@
       </c>
       <c r="J5" s="92" t="e">
         <f>VLOOKUP(J2,nodeOLD!$A$32:$C$47,4,0)</f>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="K5" s="92" t="e">
         <f>VLOOKUP(K2,nodeOLD!$A$32:$C$47,4,0)</f>
@@ -10179,19 +10176,19 @@
       </c>
       <c r="L5" s="92" t="e">
         <f>VLOOKUP(L2,nodeOLD!$A$32:$C$47,4,0)</f>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="M5" s="92" t="e">
         <f>VLOOKUP(M2,nodeOLD!$A$32:$C$47,4,0)</f>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="N5" s="92" t="e">
         <f>VLOOKUP(N2,nodeOLD!$A$32:$C$47,4,0)</f>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="O5" s="92" t="e">
         <f>VLOOKUP(O2,nodeOLD!$A$32:$C$47,4,0)</f>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="R5" t="s">
         <v>146</v>
@@ -10215,23 +10212,23 @@
       </c>
       <c r="B7" t="e">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="C7" t="e">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="D7" t="e">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="E7" t="e">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="F7" t="e">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="G7" t="e">
         <f t="shared" si="0"/>
@@ -10239,11 +10236,11 @@
       </c>
       <c r="H7" t="e">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="I7" t="e">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="J7" t="e">
         <f t="shared" si="0"/>
@@ -10251,11 +10248,11 @@
       </c>
       <c r="K7" t="e">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="L7" t="e">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="M7" t="e">
         <f t="shared" si="0"/>
@@ -10283,23 +10280,23 @@
       </c>
       <c r="B8" t="e">
         <f t="shared" ref="B8:O17" si="1">_xlfn.FORECAST.LINEAR($A8,B$3:B$5,$A$3:$A$5)</f>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="C8" t="e">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="D8" t="e">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="E8" t="e">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="F8" t="e">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="G8" t="e">
         <f t="shared" si="1"/>
@@ -10307,11 +10304,11 @@
       </c>
       <c r="H8" t="e">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="I8" t="e">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="J8" t="e">
         <f t="shared" si="1"/>
@@ -10319,11 +10316,11 @@
       </c>
       <c r="K8" t="e">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="L8" t="e">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="M8" t="e">
         <f t="shared" si="1"/>
@@ -10351,23 +10348,23 @@
       </c>
       <c r="B9" t="e">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="C9" t="e">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="D9" t="e">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="E9" t="e">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="F9" t="e">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="G9" t="e">
         <f t="shared" si="1"/>
@@ -10375,11 +10372,11 @@
       </c>
       <c r="H9" t="e">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="I9" t="e">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="J9" t="e">
         <f t="shared" si="1"/>
@@ -10387,11 +10384,11 @@
       </c>
       <c r="K9" t="e">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="L9" t="e">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="M9" t="e">
         <f t="shared" si="1"/>
@@ -10420,23 +10417,23 @@
       </c>
       <c r="B10" t="e">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="C10" t="e">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="D10" t="e">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="E10" t="e">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="F10" t="e">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="G10" t="e">
         <f t="shared" si="1"/>
@@ -10444,11 +10441,11 @@
       </c>
       <c r="H10" t="e">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="I10" t="e">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="J10" t="e">
         <f t="shared" si="1"/>
@@ -10456,11 +10453,11 @@
       </c>
       <c r="K10" t="e">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="L10" t="e">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="M10" t="e">
         <f t="shared" si="1"/>
@@ -10487,23 +10484,23 @@
       </c>
       <c r="B11" t="e">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="C11" t="e">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="D11" t="e">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="E11" t="e">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="F11" t="e">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="G11" t="e">
         <f t="shared" si="1"/>
@@ -10511,11 +10508,11 @@
       </c>
       <c r="H11" t="e">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="I11" t="e">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="J11" t="e">
         <f t="shared" si="1"/>
@@ -10523,11 +10520,11 @@
       </c>
       <c r="K11" t="e">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="L11" t="e">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="M11" t="e">
         <f t="shared" si="1"/>
@@ -10554,23 +10551,23 @@
       </c>
       <c r="B12" t="e">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="C12" t="e">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="D12" t="e">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="E12" t="e">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="F12" t="e">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="G12" t="e">
         <f t="shared" si="1"/>
@@ -10578,11 +10575,11 @@
       </c>
       <c r="H12" t="e">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="I12" t="e">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="J12" t="e">
         <f t="shared" si="1"/>
@@ -10590,11 +10587,11 @@
       </c>
       <c r="K12" t="e">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="L12" t="e">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="M12" t="e">
         <f t="shared" si="1"/>
@@ -10621,23 +10618,23 @@
       </c>
       <c r="B13" t="e">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="C13" t="e">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="D13" t="e">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="E13" t="e">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="F13" t="e">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="G13" t="e">
         <f t="shared" si="1"/>
@@ -10645,11 +10642,11 @@
       </c>
       <c r="H13" t="e">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="I13" t="e">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="J13" t="e">
         <f t="shared" si="1"/>
@@ -10657,11 +10654,11 @@
       </c>
       <c r="K13" t="e">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="L13" t="e">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="M13" t="e">
         <f t="shared" si="1"/>
@@ -10688,23 +10685,23 @@
       </c>
       <c r="B14" t="e">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="C14" t="e">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="D14" t="e">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="E14" t="e">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="F14" t="e">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="G14" t="e">
         <f t="shared" si="1"/>
@@ -10712,11 +10709,11 @@
       </c>
       <c r="H14" t="e">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="I14" t="e">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="J14" t="e">
         <f t="shared" si="1"/>
@@ -10724,11 +10721,11 @@
       </c>
       <c r="K14" t="e">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="L14" t="e">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="M14" t="e">
         <f t="shared" si="1"/>
@@ -10755,23 +10752,23 @@
       </c>
       <c r="B15" t="e">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="C15" t="e">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="D15" t="e">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="E15" t="e">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="F15" t="e">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="G15" t="e">
         <f t="shared" si="1"/>
@@ -10779,11 +10776,11 @@
       </c>
       <c r="H15" t="e">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="I15" t="e">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="J15" t="e">
         <f t="shared" si="1"/>
@@ -10791,11 +10788,11 @@
       </c>
       <c r="K15" t="e">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="L15" t="e">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="M15" t="e">
         <f t="shared" si="1"/>
@@ -10822,23 +10819,23 @@
       </c>
       <c r="B16" t="e">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="C16" t="e">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="D16" t="e">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="E16" t="e">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="F16" t="e">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="G16" t="e">
         <f t="shared" si="1"/>
@@ -10846,11 +10843,11 @@
       </c>
       <c r="H16" t="e">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="I16" t="e">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="J16" t="e">
         <f t="shared" si="1"/>
@@ -10858,11 +10855,11 @@
       </c>
       <c r="K16" t="e">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="L16" t="e">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="M16" t="e">
         <f t="shared" si="1"/>
@@ -10883,23 +10880,23 @@
       </c>
       <c r="B17" t="e">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="C17" t="e">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="D17" t="e">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="E17" t="e">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="F17" t="e">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="G17" t="e">
         <f t="shared" si="1"/>
@@ -10907,11 +10904,11 @@
       </c>
       <c r="H17" t="e">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="I17" t="e">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="J17" t="e">
         <f t="shared" si="1"/>
@@ -10919,11 +10916,11 @@
       </c>
       <c r="K17" t="e">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="L17" t="e">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="M17" t="e">
         <f t="shared" si="1"/>
@@ -10944,23 +10941,23 @@
       </c>
       <c r="B18" t="e">
         <f t="shared" ref="B18:O27" si="2">_xlfn.FORECAST.LINEAR($A18,B$3:B$5,$A$3:$A$5)</f>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="C18" t="e">
         <f t="shared" si="2"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="D18" t="e">
         <f t="shared" si="2"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="E18" t="e">
         <f t="shared" si="2"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="F18" t="e">
         <f t="shared" si="2"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="G18" t="e">
         <f t="shared" si="2"/>
@@ -10968,11 +10965,11 @@
       </c>
       <c r="H18" t="e">
         <f t="shared" si="2"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="I18" t="e">
         <f t="shared" si="2"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="J18" t="e">
         <f t="shared" si="2"/>
@@ -10980,11 +10977,11 @@
       </c>
       <c r="K18" t="e">
         <f t="shared" si="2"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="L18" t="e">
         <f t="shared" si="2"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="M18" t="e">
         <f t="shared" si="2"/>
@@ -11011,23 +11008,23 @@
       </c>
       <c r="B19" t="e">
         <f t="shared" si="2"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="C19" t="e">
         <f t="shared" si="2"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="D19" t="e">
         <f t="shared" si="2"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="E19" t="e">
         <f t="shared" si="2"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="F19" t="e">
         <f t="shared" si="2"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="G19" t="e">
         <f t="shared" si="2"/>
@@ -11035,11 +11032,11 @@
       </c>
       <c r="H19" t="e">
         <f t="shared" si="2"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="I19" t="e">
         <f t="shared" si="2"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="J19" t="e">
         <f t="shared" si="2"/>
@@ -11047,11 +11044,11 @@
       </c>
       <c r="K19" t="e">
         <f t="shared" si="2"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="L19" t="e">
         <f t="shared" si="2"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="M19" t="e">
         <f t="shared" si="2"/>
@@ -11093,23 +11090,23 @@
       </c>
       <c r="B20" t="e">
         <f t="shared" si="2"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="C20" t="e">
         <f t="shared" si="2"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="D20" t="e">
         <f t="shared" si="2"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="E20" t="e">
         <f t="shared" si="2"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="F20" t="e">
         <f t="shared" si="2"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="G20" t="e">
         <f t="shared" si="2"/>
@@ -11117,11 +11114,11 @@
       </c>
       <c r="H20" t="e">
         <f t="shared" si="2"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="I20" t="e">
         <f t="shared" si="2"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="J20" t="e">
         <f t="shared" si="2"/>
@@ -11129,11 +11126,11 @@
       </c>
       <c r="K20" t="e">
         <f t="shared" si="2"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="L20" t="e">
         <f t="shared" si="2"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="M20" t="e">
         <f t="shared" si="2"/>
@@ -11186,23 +11183,23 @@
       </c>
       <c r="B21" t="e">
         <f t="shared" si="2"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="C21" t="e">
         <f t="shared" si="2"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="D21" t="e">
         <f t="shared" si="2"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="E21" t="e">
         <f t="shared" si="2"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="F21" t="e">
         <f t="shared" si="2"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="G21" t="e">
         <f t="shared" si="2"/>
@@ -11210,11 +11207,11 @@
       </c>
       <c r="H21" t="e">
         <f t="shared" si="2"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="I21" t="e">
         <f t="shared" si="2"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="J21" t="e">
         <f t="shared" si="2"/>
@@ -11222,11 +11219,11 @@
       </c>
       <c r="K21" t="e">
         <f t="shared" si="2"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="L21" t="e">
         <f t="shared" si="2"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="M21" t="e">
         <f t="shared" si="2"/>
@@ -11279,23 +11276,23 @@
       </c>
       <c r="B22" t="e">
         <f t="shared" si="2"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="C22" t="e">
         <f t="shared" si="2"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="D22" t="e">
         <f t="shared" si="2"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="E22" t="e">
         <f t="shared" si="2"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="F22" t="e">
         <f t="shared" si="2"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="G22" t="e">
         <f t="shared" si="2"/>
@@ -11303,11 +11300,11 @@
       </c>
       <c r="H22" t="e">
         <f t="shared" si="2"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="I22" t="e">
         <f t="shared" si="2"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="J22" t="e">
         <f t="shared" si="2"/>
@@ -11315,11 +11312,11 @@
       </c>
       <c r="K22" t="e">
         <f t="shared" si="2"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="L22" t="e">
         <f t="shared" si="2"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="M22" t="e">
         <f t="shared" si="2"/>
@@ -11372,23 +11369,23 @@
       </c>
       <c r="B23" t="e">
         <f t="shared" si="2"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="C23" t="e">
         <f t="shared" si="2"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="D23" t="e">
         <f t="shared" si="2"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="E23" t="e">
         <f t="shared" si="2"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="F23" t="e">
         <f t="shared" si="2"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="G23" t="e">
         <f t="shared" si="2"/>
@@ -11396,11 +11393,11 @@
       </c>
       <c r="H23" t="e">
         <f t="shared" si="2"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="I23" t="e">
         <f t="shared" si="2"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="J23" t="e">
         <f t="shared" si="2"/>
@@ -11408,11 +11405,11 @@
       </c>
       <c r="K23" t="e">
         <f t="shared" si="2"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="L23" t="e">
         <f t="shared" si="2"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="M23" t="e">
         <f t="shared" si="2"/>
@@ -11465,23 +11462,23 @@
       </c>
       <c r="B24" t="e">
         <f t="shared" si="2"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="C24" t="e">
         <f t="shared" si="2"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="D24" t="e">
         <f t="shared" si="2"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="E24" t="e">
         <f t="shared" si="2"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="F24" t="e">
         <f t="shared" si="2"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="G24" t="e">
         <f t="shared" si="2"/>
@@ -11489,11 +11486,11 @@
       </c>
       <c r="H24" t="e">
         <f t="shared" si="2"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="I24" t="e">
         <f t="shared" si="2"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="J24" t="e">
         <f t="shared" si="2"/>
@@ -11501,11 +11498,11 @@
       </c>
       <c r="K24" t="e">
         <f t="shared" si="2"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="L24" t="e">
         <f t="shared" si="2"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="M24" t="e">
         <f t="shared" si="2"/>
@@ -11558,23 +11555,23 @@
       </c>
       <c r="B25" t="e">
         <f t="shared" si="2"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="C25" t="e">
         <f t="shared" si="2"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="D25" t="e">
         <f t="shared" si="2"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="E25" t="e">
         <f t="shared" si="2"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="F25" t="e">
         <f t="shared" si="2"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="G25" t="e">
         <f t="shared" si="2"/>
@@ -11582,11 +11579,11 @@
       </c>
       <c r="H25" t="e">
         <f t="shared" si="2"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="I25" t="e">
         <f t="shared" si="2"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="J25" t="e">
         <f t="shared" si="2"/>
@@ -11594,11 +11591,11 @@
       </c>
       <c r="K25" t="e">
         <f t="shared" si="2"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="L25" t="e">
         <f t="shared" si="2"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="M25" t="e">
         <f t="shared" si="2"/>
@@ -11651,23 +11648,23 @@
       </c>
       <c r="B26" t="e">
         <f t="shared" si="2"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="C26" t="e">
         <f t="shared" si="2"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="D26" t="e">
         <f t="shared" si="2"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="E26" t="e">
         <f t="shared" si="2"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="F26" t="e">
         <f t="shared" si="2"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="G26" t="e">
         <f t="shared" si="2"/>
@@ -11675,11 +11672,11 @@
       </c>
       <c r="H26" t="e">
         <f t="shared" si="2"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="I26" t="e">
         <f t="shared" si="2"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="J26" t="e">
         <f t="shared" si="2"/>
@@ -11687,11 +11684,11 @@
       </c>
       <c r="K26" t="e">
         <f t="shared" si="2"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="L26" t="e">
         <f t="shared" si="2"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="M26" t="e">
         <f t="shared" si="2"/>
@@ -11744,23 +11741,23 @@
       </c>
       <c r="B27" t="e">
         <f t="shared" si="2"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="C27" t="e">
         <f t="shared" si="2"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="D27" t="e">
         <f t="shared" si="2"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="E27" t="e">
         <f t="shared" si="2"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="F27" t="e">
         <f t="shared" si="2"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="G27" t="e">
         <f t="shared" si="2"/>
@@ -11768,11 +11765,11 @@
       </c>
       <c r="H27" t="e">
         <f t="shared" si="2"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="I27" t="e">
         <f t="shared" si="2"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="J27" t="e">
         <f t="shared" si="2"/>
@@ -11780,11 +11777,11 @@
       </c>
       <c r="K27" t="e">
         <f t="shared" si="2"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="L27" t="e">
         <f t="shared" si="2"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="M27" t="e">
         <f t="shared" si="2"/>
@@ -11837,23 +11834,23 @@
       </c>
       <c r="B28" t="e">
         <f t="shared" ref="B28:O36" si="5">_xlfn.FORECAST.LINEAR($A28,B$3:B$5,$A$3:$A$5)</f>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="C28" t="e">
         <f t="shared" si="5"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="D28" t="e">
         <f t="shared" si="5"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="E28" t="e">
         <f t="shared" si="5"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="F28" t="e">
         <f t="shared" si="5"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="G28" t="e">
         <f t="shared" si="5"/>
@@ -11861,11 +11858,11 @@
       </c>
       <c r="H28" t="e">
         <f t="shared" si="5"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="I28" t="e">
         <f t="shared" si="5"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="J28" t="e">
         <f t="shared" si="5"/>
@@ -11873,11 +11870,11 @@
       </c>
       <c r="K28" t="e">
         <f t="shared" si="5"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="L28" t="e">
         <f t="shared" si="5"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="M28" t="e">
         <f t="shared" si="5"/>
@@ -11930,23 +11927,23 @@
       </c>
       <c r="B29" t="e">
         <f t="shared" si="5"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="C29" t="e">
         <f t="shared" si="5"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="D29" t="e">
         <f t="shared" si="5"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="E29" t="e">
         <f t="shared" si="5"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="F29" t="e">
         <f t="shared" si="5"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="G29" t="e">
         <f t="shared" si="5"/>
@@ -11954,11 +11951,11 @@
       </c>
       <c r="H29" t="e">
         <f t="shared" si="5"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="I29" t="e">
         <f t="shared" si="5"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="J29" t="e">
         <f t="shared" si="5"/>
@@ -11966,11 +11963,11 @@
       </c>
       <c r="K29" t="e">
         <f t="shared" si="5"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="L29" t="e">
         <f t="shared" si="5"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="M29" t="e">
         <f t="shared" si="5"/>
@@ -12023,23 +12020,23 @@
       </c>
       <c r="B30" t="e">
         <f t="shared" si="5"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="C30" t="e">
         <f t="shared" si="5"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="D30" t="e">
         <f t="shared" si="5"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="E30" t="e">
         <f t="shared" si="5"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="F30" t="e">
         <f t="shared" si="5"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="G30" t="e">
         <f t="shared" si="5"/>
@@ -12047,11 +12044,11 @@
       </c>
       <c r="H30" t="e">
         <f t="shared" si="5"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="I30" t="e">
         <f t="shared" si="5"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="J30" t="e">
         <f t="shared" si="5"/>
@@ -12059,11 +12056,11 @@
       </c>
       <c r="K30" t="e">
         <f t="shared" si="5"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="L30" t="e">
         <f t="shared" si="5"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="M30" t="e">
         <f t="shared" si="5"/>
@@ -12084,23 +12081,23 @@
       </c>
       <c r="B31" t="e">
         <f t="shared" si="5"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="C31" t="e">
         <f t="shared" si="5"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="D31" t="e">
         <f t="shared" si="5"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="E31" t="e">
         <f t="shared" si="5"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="F31" t="e">
         <f t="shared" si="5"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="G31" t="e">
         <f t="shared" si="5"/>
@@ -12108,11 +12105,11 @@
       </c>
       <c r="H31" t="e">
         <f t="shared" si="5"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="I31" t="e">
         <f t="shared" si="5"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="J31" t="e">
         <f t="shared" si="5"/>
@@ -12120,11 +12117,11 @@
       </c>
       <c r="K31" t="e">
         <f t="shared" si="5"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="L31" t="e">
         <f t="shared" si="5"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="M31" t="e">
         <f t="shared" si="5"/>
@@ -12154,23 +12151,23 @@
       </c>
       <c r="B32" t="e">
         <f t="shared" si="5"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="C32" t="e">
         <f t="shared" si="5"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="D32" t="e">
         <f t="shared" si="5"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="E32" t="e">
         <f t="shared" si="5"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="F32" t="e">
         <f t="shared" si="5"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="G32" t="e">
         <f t="shared" si="5"/>
@@ -12178,11 +12175,11 @@
       </c>
       <c r="H32" t="e">
         <f t="shared" si="5"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="I32" t="e">
         <f t="shared" si="5"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="J32" t="e">
         <f t="shared" si="5"/>
@@ -12190,11 +12187,11 @@
       </c>
       <c r="K32" t="e">
         <f t="shared" si="5"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="L32" t="e">
         <f t="shared" si="5"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="M32" t="e">
         <f t="shared" si="5"/>
@@ -12221,23 +12218,23 @@
       </c>
       <c r="B33" t="e">
         <f t="shared" si="5"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="C33" t="e">
         <f t="shared" si="5"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="D33" t="e">
         <f t="shared" si="5"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="E33" t="e">
         <f t="shared" si="5"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="F33" t="e">
         <f t="shared" si="5"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="G33" t="e">
         <f t="shared" si="5"/>
@@ -12245,11 +12242,11 @@
       </c>
       <c r="H33" t="e">
         <f t="shared" si="5"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="I33" t="e">
         <f t="shared" si="5"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="J33" t="e">
         <f t="shared" si="5"/>
@@ -12257,11 +12254,11 @@
       </c>
       <c r="K33" t="e">
         <f t="shared" si="5"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="L33" t="e">
         <f t="shared" si="5"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="M33" t="e">
         <f t="shared" si="5"/>
@@ -12288,23 +12285,23 @@
       </c>
       <c r="B34" t="e">
         <f t="shared" si="5"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="C34" t="e">
         <f t="shared" si="5"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="D34" t="e">
         <f t="shared" si="5"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="E34" t="e">
         <f t="shared" si="5"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="F34" t="e">
         <f t="shared" si="5"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="G34" t="e">
         <f t="shared" si="5"/>
@@ -12312,11 +12309,11 @@
       </c>
       <c r="H34" t="e">
         <f t="shared" si="5"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="I34" t="e">
         <f t="shared" si="5"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="J34" t="e">
         <f t="shared" si="5"/>
@@ -12324,11 +12321,11 @@
       </c>
       <c r="K34" t="e">
         <f t="shared" si="5"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="L34" t="e">
         <f t="shared" si="5"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="M34" t="e">
         <f t="shared" si="5"/>
@@ -12355,23 +12352,23 @@
       </c>
       <c r="B35" t="e">
         <f t="shared" si="5"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="C35" t="e">
         <f t="shared" si="5"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="D35" t="e">
         <f t="shared" si="5"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="E35" t="e">
         <f t="shared" si="5"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="F35" t="e">
         <f t="shared" si="5"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="G35" t="e">
         <f t="shared" si="5"/>
@@ -12379,11 +12376,11 @@
       </c>
       <c r="H35" t="e">
         <f t="shared" si="5"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="I35" t="e">
         <f t="shared" si="5"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="J35" t="e">
         <f t="shared" si="5"/>
@@ -12391,11 +12388,11 @@
       </c>
       <c r="K35" t="e">
         <f t="shared" si="5"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="L35" t="e">
         <f t="shared" si="5"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="M35" t="e">
         <f t="shared" si="5"/>
@@ -12424,23 +12421,23 @@
       </c>
       <c r="B36" t="e">
         <f t="shared" si="5"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="C36" t="e">
         <f t="shared" si="5"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="D36" t="e">
         <f t="shared" si="5"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="E36" t="e">
         <f t="shared" si="5"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="F36" t="e">
         <f t="shared" si="5"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="G36" t="e">
         <f t="shared" si="5"/>
@@ -12448,11 +12445,11 @@
       </c>
       <c r="H36" t="e">
         <f t="shared" si="5"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="I36" t="e">
         <f t="shared" si="5"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="J36" t="e">
         <f t="shared" si="5"/>
@@ -12460,11 +12457,11 @@
       </c>
       <c r="K36" t="e">
         <f t="shared" si="5"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="L36" t="e">
         <f t="shared" si="5"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="M36" t="e">
         <f t="shared" si="5"/>
@@ -12486,19 +12483,19 @@
       </c>
       <c r="B37" t="e">
         <f t="shared" si="6"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="C37" t="e">
         <f t="shared" si="6"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="D37" t="e">
         <f t="shared" si="6"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="E37" t="e">
         <f t="shared" si="6"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="F37" t="e">
         <f t="shared" si="6"/>
@@ -12506,7 +12503,7 @@
       </c>
       <c r="G37" t="e">
         <f t="shared" si="6"/>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
       <c r="H37" t="e">
         <f t="shared" si="6"/>
@@ -12518,7 +12515,7 @@
       </c>
       <c r="J37" t="e">
         <f t="shared" si="6"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="K37" t="e">
         <f t="shared" si="6"/>
@@ -12526,19 +12523,19 @@
       </c>
       <c r="L37" t="e">
         <f t="shared" si="6"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="M37" t="e">
         <f t="shared" si="6"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="N37" t="e">
         <f t="shared" si="6"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="O37" t="e">
         <f t="shared" si="6"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="39" spans="1:22">
@@ -12767,7 +12764,7 @@
       </c>
       <c r="B48" s="26" t="e">
         <f>VLOOKUP($A$48,$A$49:$I$79,2,0)</f>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="C48" s="26" t="e">
         <f>VLOOKUP($A$48,$A$49:$I$79,3,0)</f>
@@ -12837,7 +12834,7 @@
       </c>
       <c r="B49" t="e">
         <f t="shared" ref="B49:B79" si="9">B$44+($L8+B$46*$V$35)/B$45</f>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="C49" t="e">
         <f t="shared" ref="C49:D79" si="10">C$44+($G8+C$46*$V$35)/C$45</f>
@@ -12872,7 +12869,7 @@
       </c>
       <c r="N49" t="e">
         <f t="shared" ref="N49:N78" si="13">$M49*B$48 + B$43+B$42</f>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="O49" t="e">
         <f t="shared" ref="O49:O78" si="14">$M49*C$48 + C$43+C$42</f>
@@ -12910,7 +12907,7 @@
       </c>
       <c r="B50" t="e">
         <f t="shared" si="9"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="C50" t="e">
         <f t="shared" si="10"/>
@@ -12945,7 +12942,7 @@
       </c>
       <c r="N50" t="e">
         <f t="shared" si="13"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="O50" t="e">
         <f t="shared" si="14"/>
@@ -12983,7 +12980,7 @@
       </c>
       <c r="B51" t="e">
         <f t="shared" si="9"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="C51" t="e">
         <f t="shared" si="10"/>
@@ -13018,7 +13015,7 @@
       </c>
       <c r="N51" t="e">
         <f t="shared" si="13"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="O51" t="e">
         <f t="shared" si="14"/>
@@ -13056,7 +13053,7 @@
       </c>
       <c r="B52" t="e">
         <f t="shared" si="9"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="C52" t="e">
         <f t="shared" si="10"/>
@@ -13091,7 +13088,7 @@
       </c>
       <c r="N52" t="e">
         <f t="shared" si="13"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="O52" t="e">
         <f t="shared" si="14"/>
@@ -13129,7 +13126,7 @@
       </c>
       <c r="B53" t="e">
         <f t="shared" si="9"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="C53" t="e">
         <f t="shared" si="10"/>
@@ -13164,7 +13161,7 @@
       </c>
       <c r="N53" t="e">
         <f t="shared" si="13"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="O53" t="e">
         <f t="shared" si="14"/>
@@ -13202,7 +13199,7 @@
       </c>
       <c r="B54" t="e">
         <f t="shared" si="9"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="C54" t="e">
         <f t="shared" si="10"/>
@@ -13237,7 +13234,7 @@
       </c>
       <c r="N54" t="e">
         <f t="shared" si="13"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="O54" t="e">
         <f t="shared" si="14"/>
@@ -13275,7 +13272,7 @@
       </c>
       <c r="B55" t="e">
         <f t="shared" si="9"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="C55" t="e">
         <f t="shared" si="10"/>
@@ -13310,7 +13307,7 @@
       </c>
       <c r="N55" t="e">
         <f t="shared" si="13"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="O55" t="e">
         <f t="shared" si="14"/>
@@ -13348,7 +13345,7 @@
       </c>
       <c r="B56" t="e">
         <f t="shared" si="9"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="C56" t="e">
         <f t="shared" si="10"/>
@@ -13383,7 +13380,7 @@
       </c>
       <c r="N56" t="e">
         <f t="shared" si="13"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="O56" t="e">
         <f t="shared" si="14"/>
@@ -13421,7 +13418,7 @@
       </c>
       <c r="B57" t="e">
         <f t="shared" si="9"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="C57" t="e">
         <f t="shared" si="10"/>
@@ -13456,7 +13453,7 @@
       </c>
       <c r="N57" t="e">
         <f t="shared" si="13"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="O57" t="e">
         <f t="shared" si="14"/>
@@ -13494,7 +13491,7 @@
       </c>
       <c r="B58" t="e">
         <f t="shared" si="9"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="C58" t="e">
         <f t="shared" si="10"/>
@@ -13529,7 +13526,7 @@
       </c>
       <c r="N58" t="e">
         <f t="shared" si="13"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="O58" t="e">
         <f t="shared" si="14"/>
@@ -13567,7 +13564,7 @@
       </c>
       <c r="B59" t="e">
         <f t="shared" si="9"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="C59" t="e">
         <f t="shared" si="10"/>
@@ -13602,7 +13599,7 @@
       </c>
       <c r="N59" t="e">
         <f t="shared" si="13"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="O59" t="e">
         <f t="shared" si="14"/>
@@ -13640,7 +13637,7 @@
       </c>
       <c r="B60" t="e">
         <f t="shared" si="9"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="C60" t="e">
         <f t="shared" si="10"/>
@@ -13675,7 +13672,7 @@
       </c>
       <c r="N60" t="e">
         <f t="shared" si="13"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="O60" t="e">
         <f t="shared" si="14"/>
@@ -13713,7 +13710,7 @@
       </c>
       <c r="B61" t="e">
         <f t="shared" si="9"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="C61" t="e">
         <f t="shared" si="10"/>
@@ -13748,7 +13745,7 @@
       </c>
       <c r="N61" t="e">
         <f t="shared" si="13"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="O61" t="e">
         <f t="shared" si="14"/>
@@ -13786,7 +13783,7 @@
       </c>
       <c r="B62" t="e">
         <f t="shared" si="9"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="C62" t="e">
         <f t="shared" si="10"/>
@@ -13821,7 +13818,7 @@
       </c>
       <c r="N62" t="e">
         <f t="shared" si="13"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="O62" t="e">
         <f t="shared" si="14"/>
@@ -13859,7 +13856,7 @@
       </c>
       <c r="B63" t="e">
         <f t="shared" si="9"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="C63" t="e">
         <f t="shared" si="10"/>
@@ -13894,7 +13891,7 @@
       </c>
       <c r="N63" t="e">
         <f t="shared" si="13"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="O63" t="e">
         <f t="shared" si="14"/>
@@ -13932,7 +13929,7 @@
       </c>
       <c r="B64" t="e">
         <f t="shared" si="9"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="C64" t="e">
         <f t="shared" si="10"/>
@@ -13967,7 +13964,7 @@
       </c>
       <c r="N64" t="e">
         <f t="shared" si="13"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="O64" t="e">
         <f t="shared" si="14"/>
@@ -14005,7 +14002,7 @@
       </c>
       <c r="B65" t="e">
         <f t="shared" si="9"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="C65" t="e">
         <f t="shared" si="10"/>
@@ -14040,7 +14037,7 @@
       </c>
       <c r="N65" t="e">
         <f t="shared" si="13"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="O65" t="e">
         <f t="shared" si="14"/>
@@ -14078,7 +14075,7 @@
       </c>
       <c r="B66" t="e">
         <f t="shared" si="9"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="C66" t="e">
         <f t="shared" si="10"/>
@@ -14113,7 +14110,7 @@
       </c>
       <c r="N66" t="e">
         <f t="shared" si="13"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="O66" t="e">
         <f t="shared" si="14"/>
@@ -14151,7 +14148,7 @@
       </c>
       <c r="B67" t="e">
         <f t="shared" si="9"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="C67" t="e">
         <f t="shared" si="10"/>
@@ -14186,7 +14183,7 @@
       </c>
       <c r="N67" t="e">
         <f t="shared" si="13"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="O67" t="e">
         <f t="shared" si="14"/>
@@ -14224,7 +14221,7 @@
       </c>
       <c r="B68" t="e">
         <f t="shared" si="9"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="C68" t="e">
         <f t="shared" si="10"/>
@@ -14259,7 +14256,7 @@
       </c>
       <c r="N68" t="e">
         <f t="shared" si="13"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="O68" t="e">
         <f t="shared" si="14"/>
@@ -14297,7 +14294,7 @@
       </c>
       <c r="B69" t="e">
         <f t="shared" si="9"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="C69" t="e">
         <f t="shared" si="10"/>
@@ -14332,7 +14329,7 @@
       </c>
       <c r="N69" t="e">
         <f t="shared" si="13"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="O69" t="e">
         <f t="shared" si="14"/>
@@ -14370,7 +14367,7 @@
       </c>
       <c r="B70" t="e">
         <f t="shared" si="9"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="C70" t="e">
         <f t="shared" si="10"/>
@@ -14405,7 +14402,7 @@
       </c>
       <c r="N70" t="e">
         <f t="shared" si="13"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="O70" t="e">
         <f t="shared" si="14"/>
@@ -14443,7 +14440,7 @@
       </c>
       <c r="B71" t="e">
         <f t="shared" si="9"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="C71" t="e">
         <f t="shared" si="10"/>
@@ -14478,7 +14475,7 @@
       </c>
       <c r="N71" t="e">
         <f t="shared" si="13"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="O71" t="e">
         <f t="shared" si="14"/>
@@ -14516,7 +14513,7 @@
       </c>
       <c r="B72" t="e">
         <f t="shared" si="9"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="C72" t="e">
         <f t="shared" si="10"/>
@@ -14551,7 +14548,7 @@
       </c>
       <c r="N72" t="e">
         <f t="shared" si="13"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="O72" t="e">
         <f t="shared" si="14"/>
@@ -14589,7 +14586,7 @@
       </c>
       <c r="B73" t="e">
         <f t="shared" si="9"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="C73" t="e">
         <f t="shared" si="10"/>
@@ -14624,7 +14621,7 @@
       </c>
       <c r="N73" t="e">
         <f t="shared" si="13"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="O73" t="e">
         <f t="shared" si="14"/>
@@ -14662,7 +14659,7 @@
       </c>
       <c r="B74" t="e">
         <f t="shared" si="9"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="C74" t="e">
         <f t="shared" si="10"/>
@@ -14697,7 +14694,7 @@
       </c>
       <c r="N74" t="e">
         <f t="shared" si="13"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="O74" t="e">
         <f t="shared" si="14"/>
@@ -14735,7 +14732,7 @@
       </c>
       <c r="B75" t="e">
         <f t="shared" si="9"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="C75" t="e">
         <f t="shared" si="10"/>
@@ -14770,7 +14767,7 @@
       </c>
       <c r="N75" t="e">
         <f t="shared" si="13"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="O75" t="e">
         <f t="shared" si="14"/>
@@ -14808,7 +14805,7 @@
       </c>
       <c r="B76" t="e">
         <f t="shared" si="9"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="C76" t="e">
         <f t="shared" si="10"/>
@@ -14843,7 +14840,7 @@
       </c>
       <c r="N76" t="e">
         <f t="shared" si="13"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="O76" t="e">
         <f t="shared" si="14"/>
@@ -14881,7 +14878,7 @@
       </c>
       <c r="B77" t="e">
         <f t="shared" si="9"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="C77" t="e">
         <f t="shared" si="10"/>
@@ -14916,7 +14913,7 @@
       </c>
       <c r="N77" t="e">
         <f t="shared" si="13"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="O77" t="e">
         <f t="shared" si="14"/>
@@ -14954,15 +14951,15 @@
       </c>
       <c r="B78" t="e">
         <f t="shared" si="9"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="C78" t="e">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
       <c r="D78" t="e">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
       <c r="E78">
         <f t="shared" si="11"/>
@@ -14982,14 +14979,14 @@
       </c>
       <c r="I78" t="e">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
       <c r="M78">
         <v>8700</v>
       </c>
       <c r="N78" t="e">
         <f t="shared" si="13"/>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
       <c r="O78" t="e">
         <f t="shared" si="14"/>
@@ -30722,8 +30719,8 @@
   </sheetPr>
   <dimension ref="A1:W97"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
@@ -30765,13 +30762,13 @@
     </row>
     <row r="2" spans="1:20">
       <c r="A2" s="5" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="B2" s="5">
         <v>2020</v>
       </c>
       <c r="C2" s="5">
-        <v>21.175000000000001</v>
+        <v>82.5</v>
       </c>
       <c r="E2" t="s">
         <v>140</v>
@@ -30780,14 +30777,14 @@
       <c r="R2" s="25"/>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" s="27" t="s">
-        <v>141</v>
+      <c r="A3" s="5" t="s">
+        <v>155</v>
       </c>
       <c r="B3" s="5">
-        <v>2020</v>
+        <v>2030</v>
       </c>
       <c r="C3" s="5">
-        <v>74.3</v>
+        <v>82.5</v>
       </c>
       <c r="E3" t="s">
         <v>142</v>
@@ -30800,13 +30797,13 @@
     </row>
     <row r="4" spans="1:20">
       <c r="A4" s="5" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="B4" s="5">
-        <v>2020</v>
+        <v>2050</v>
       </c>
       <c r="C4" s="5">
-        <v>46.33</v>
+        <v>82.5</v>
       </c>
       <c r="E4" t="s">
         <v>145</v>
@@ -30816,13 +30813,13 @@
     </row>
     <row r="5" spans="1:20">
       <c r="A5" s="5" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="B5" s="5">
         <v>2020</v>
       </c>
       <c r="C5" s="5">
-        <v>6.48</v>
+        <v>86</v>
       </c>
       <c r="E5" t="s">
         <v>140</v>
@@ -30833,13 +30830,13 @@
     </row>
     <row r="6" spans="1:20">
       <c r="A6" s="5" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="B6" s="5">
-        <v>2020</v>
+        <v>2030</v>
       </c>
       <c r="C6" s="5">
-        <v>16.716999999999999</v>
+        <v>74.66</v>
       </c>
       <c r="E6" t="s">
         <v>140</v>
@@ -30849,15 +30846,14 @@
       <c r="R6" s="25"/>
     </row>
     <row r="7" spans="1:20">
-      <c r="A7" s="27" t="s">
-        <v>148</v>
+      <c r="A7" s="5" t="s">
+        <v>156</v>
       </c>
       <c r="B7" s="5">
-        <v>2020</v>
-      </c>
-      <c r="C7" s="28">
-        <f>C48+C16*E50</f>
-        <v>28.128393536000001</v>
+        <v>2050</v>
+      </c>
+      <c r="C7" s="5">
+        <v>50.29</v>
       </c>
       <c r="E7" t="s">
         <v>145</v>
@@ -30871,13 +30867,13 @@
     </row>
     <row r="8" spans="1:20">
       <c r="A8" s="5" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="B8" s="5">
         <v>2020</v>
       </c>
-      <c r="C8" s="5">
-        <v>1.69</v>
+      <c r="C8" s="28">
+        <v>40</v>
       </c>
       <c r="E8" t="s">
         <v>140</v>
@@ -30888,13 +30884,13 @@
     </row>
     <row r="9" spans="1:20">
       <c r="A9" s="5" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="B9" s="5">
         <v>2020</v>
       </c>
-      <c r="C9" s="5">
-        <v>4.5359999999999996</v>
+      <c r="C9" s="28">
+        <v>123</v>
       </c>
       <c r="E9" t="s">
         <v>140</v>
@@ -30905,13 +30901,13 @@
     </row>
     <row r="10" spans="1:20">
       <c r="A10" s="5" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="B10" s="5">
-        <v>2020</v>
-      </c>
-      <c r="C10" s="5">
-        <v>8.2799999999999994</v>
+        <v>2050</v>
+      </c>
+      <c r="C10" s="28">
+        <v>168</v>
       </c>
       <c r="E10" t="s">
         <v>145</v>
@@ -30922,13 +30918,13 @@
     </row>
     <row r="11" spans="1:20">
       <c r="A11" s="5" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="B11" s="5">
         <v>2020</v>
       </c>
       <c r="C11" s="5">
-        <v>7.5</v>
+        <v>15</v>
       </c>
       <c r="E11" t="s">
         <v>140</v>
@@ -30943,13 +30939,13 @@
     </row>
     <row r="12" spans="1:20">
       <c r="A12" s="5" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B12" s="5">
-        <v>2020</v>
+        <v>2030</v>
       </c>
       <c r="C12" s="5">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="E12" t="s">
         <v>140</v>
@@ -30973,13 +30969,13 @@
     </row>
     <row r="13" spans="1:20">
       <c r="A13" s="5" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B13" s="5">
-        <v>2020</v>
+        <v>2050</v>
       </c>
       <c r="C13" s="5">
-        <v>82.5</v>
+        <v>15</v>
       </c>
       <c r="E13" t="s">
         <v>140</v>
@@ -31003,13 +30999,13 @@
     </row>
     <row r="14" spans="1:20">
       <c r="A14" s="5" t="s">
-        <v>156</v>
+        <v>53</v>
       </c>
       <c r="B14" s="5">
-        <v>2020</v>
+        <v>2050</v>
       </c>
       <c r="C14" s="5">
-        <v>86</v>
+        <v>1</v>
       </c>
       <c r="E14" t="s">
         <v>140</v>
@@ -31033,13 +31029,13 @@
     </row>
     <row r="15" spans="1:20">
       <c r="A15" s="5" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B15" s="5">
         <v>2020</v>
       </c>
       <c r="C15" s="5">
-        <v>15</v>
+        <v>8.2799999999999994</v>
       </c>
       <c r="E15" t="s">
         <v>140</v>
@@ -31062,13 +31058,13 @@
     </row>
     <row r="16" spans="1:20">
       <c r="A16" s="5" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B16" s="5">
-        <v>2020</v>
-      </c>
-      <c r="C16" s="28">
-        <v>40</v>
+        <v>2030</v>
+      </c>
+      <c r="C16" s="5">
+        <v>7.09</v>
       </c>
       <c r="E16" t="s">
         <v>145</v>
@@ -31098,13 +31094,13 @@
     </row>
     <row r="17" spans="1:23">
       <c r="A17" s="5" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="B17" s="5">
-        <v>2030</v>
+        <v>2050</v>
       </c>
       <c r="C17" s="5">
-        <v>40.68</v>
+        <v>6.73</v>
       </c>
       <c r="E17" t="s">
         <v>140</v>
@@ -31137,13 +31133,13 @@
     </row>
     <row r="18" spans="1:23">
       <c r="A18" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B18" s="5">
-        <v>2030</v>
+        <v>2020</v>
       </c>
       <c r="C18" s="5">
-        <v>57.9</v>
+        <v>21.175000000000001</v>
       </c>
       <c r="E18" t="s">
         <v>142</v>
@@ -31190,13 +31186,13 @@
     </row>
     <row r="19" spans="1:23">
       <c r="A19" s="5" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B19" s="5">
         <v>2030</v>
       </c>
       <c r="C19" s="5">
-        <v>36.32</v>
+        <v>40.68</v>
       </c>
       <c r="E19" t="s">
         <v>145</v>
@@ -31222,13 +31218,13 @@
     </row>
     <row r="20" spans="1:23">
       <c r="A20" s="5" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B20" s="5">
-        <v>2030</v>
+        <v>2050</v>
       </c>
       <c r="C20" s="5">
-        <v>6.48</v>
+        <v>79.69</v>
       </c>
       <c r="E20" t="s">
         <v>140</v>
@@ -31253,14 +31249,15 @@
       <c r="Q20" s="25"/>
     </row>
     <row r="21" spans="1:23">
-      <c r="A21" s="5" t="s">
-        <v>147</v>
+      <c r="A21" s="27" t="s">
+        <v>148</v>
       </c>
       <c r="B21" s="5">
-        <v>2030</v>
-      </c>
-      <c r="C21" s="5">
-        <v>26.81</v>
+        <v>2020</v>
+      </c>
+      <c r="C21" s="28">
+        <f>C62+C30*E64</f>
+        <v>34035.509999999995</v>
       </c>
       <c r="E21" t="s">
         <v>140</v>
@@ -31293,7 +31290,7 @@
       </c>
       <c r="C22" s="28">
         <f>C49+C31*E50</f>
-        <v>39.311060123200001</v>
+        <v>50.414543267504001</v>
       </c>
       <c r="E22" t="s">
         <v>145</v>
@@ -31334,14 +31331,15 @@
       </c>
     </row>
     <row r="23" spans="1:23" ht="16.5">
-      <c r="A23" s="5" t="s">
-        <v>149</v>
+      <c r="A23" s="27" t="s">
+        <v>148</v>
       </c>
       <c r="B23" s="5">
-        <v>2030</v>
-      </c>
-      <c r="C23" s="5">
-        <v>1.69</v>
+        <v>2050</v>
+      </c>
+      <c r="C23" s="28" t="e">
+        <f>C35+E35*C31</f>
+        <v>#VALUE!</v>
       </c>
       <c r="E23" t="s">
         <v>140</v>
@@ -31380,13 +31378,13 @@
     </row>
     <row r="24" spans="1:23">
       <c r="A24" s="5" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B24" s="5">
-        <v>2030</v>
+        <v>2020</v>
       </c>
       <c r="C24" s="5">
-        <v>6.6959999999999997</v>
+        <v>46.33</v>
       </c>
       <c r="E24" t="s">
         <v>140</v>
@@ -31415,13 +31413,13 @@
     </row>
     <row r="25" spans="1:23">
       <c r="A25" s="5" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="B25" s="5">
         <v>2030</v>
       </c>
       <c r="C25" s="5">
-        <v>7.09</v>
+        <v>36.32</v>
       </c>
       <c r="E25" t="s">
         <v>145</v>
@@ -31447,13 +31445,13 @@
     </row>
     <row r="26" spans="1:23">
       <c r="A26" s="5" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="B26" s="5">
-        <v>2030</v>
+        <v>2050</v>
       </c>
       <c r="C26" s="5">
-        <v>7.5</v>
+        <v>32.83</v>
       </c>
       <c r="E26" t="s">
         <v>140</v>
@@ -31488,13 +31486,13 @@
     </row>
     <row r="27" spans="1:23">
       <c r="A27" s="5" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="B27" s="5">
-        <v>2030</v>
+        <v>2020</v>
       </c>
       <c r="C27" s="5">
-        <v>45</v>
+        <v>6.48</v>
       </c>
       <c r="E27" t="s">
         <v>140</v>
@@ -31515,13 +31513,13 @@
     </row>
     <row r="28" spans="1:23">
       <c r="A28" s="5" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="B28" s="5">
         <v>2030</v>
       </c>
       <c r="C28" s="5">
-        <v>82.5</v>
+        <v>6.48</v>
       </c>
       <c r="E28" t="s">
         <v>140</v>
@@ -31538,13 +31536,13 @@
     </row>
     <row r="29" spans="1:23" ht="17.25">
       <c r="A29" s="5" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="B29" s="5">
-        <v>2030</v>
+        <v>2050</v>
       </c>
       <c r="C29" s="5">
-        <v>74.66</v>
+        <v>6.48</v>
       </c>
       <c r="E29" t="s">
         <v>140</v>
@@ -31556,13 +31554,13 @@
     </row>
     <row r="30" spans="1:23">
       <c r="A30" s="5" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="B30" s="5">
-        <v>2030</v>
+        <v>2020</v>
       </c>
       <c r="C30" s="5">
-        <v>15</v>
+        <v>16.716999999999999</v>
       </c>
       <c r="E30" t="s">
         <v>140</v>
@@ -31573,13 +31571,13 @@
     </row>
     <row r="31" spans="1:23">
       <c r="A31" s="5" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="B31" s="5">
-        <v>2020</v>
-      </c>
-      <c r="C31" s="28">
-        <v>123</v>
+        <v>2030</v>
+      </c>
+      <c r="C31" s="5">
+        <v>26.81</v>
       </c>
       <c r="E31" t="s">
         <v>145</v>
@@ -31590,13 +31588,13 @@
     </row>
     <row r="32" spans="1:23">
       <c r="A32" s="5" t="s">
-        <v>53</v>
+        <v>147</v>
       </c>
       <c r="B32" s="5">
         <v>2050</v>
       </c>
       <c r="C32" s="5">
-        <v>1</v>
+        <v>46.996000000000002</v>
       </c>
       <c r="E32" t="s">
         <v>137</v>
@@ -31607,14 +31605,14 @@
       <c r="Q32" s="25"/>
     </row>
     <row r="33" spans="1:17">
-      <c r="A33" s="5" t="s">
-        <v>139</v>
+      <c r="A33" s="27" t="s">
+        <v>160</v>
       </c>
       <c r="B33" s="5">
-        <v>2050</v>
+        <v>2020</v>
       </c>
       <c r="C33" s="5">
-        <v>79.69</v>
+        <v>20.05</v>
       </c>
       <c r="E33" t="s">
         <v>140</v>
@@ -31625,14 +31623,14 @@
       <c r="Q33" s="25"/>
     </row>
     <row r="34" spans="1:17">
-      <c r="A34" s="5" t="s">
-        <v>141</v>
+      <c r="A34" s="27" t="s">
+        <v>160</v>
       </c>
       <c r="B34" s="5">
-        <v>2050</v>
+        <v>2030</v>
       </c>
       <c r="C34" s="5">
-        <v>45.1</v>
+        <v>14.47</v>
       </c>
       <c r="E34" t="s">
         <v>142</v>
@@ -31646,14 +31644,14 @@
       <c r="Q34" s="25"/>
     </row>
     <row r="35" spans="1:17">
-      <c r="A35" s="5" t="s">
-        <v>144</v>
+      <c r="A35" s="27" t="s">
+        <v>160</v>
       </c>
       <c r="B35" s="5">
         <v>2050</v>
       </c>
       <c r="C35" s="5">
-        <v>32.83</v>
+        <v>14.65</v>
       </c>
       <c r="E35" t="s">
         <v>145</v>
@@ -31665,13 +31663,13 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="5" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B36" s="5">
-        <v>2050</v>
+        <v>2020</v>
       </c>
       <c r="C36" s="5">
-        <v>6.48</v>
+        <v>1.69</v>
       </c>
       <c r="E36" t="s">
         <v>140</v>
@@ -31683,13 +31681,13 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="5" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B37" s="5">
-        <v>2050</v>
+        <v>2030</v>
       </c>
       <c r="C37" s="5">
-        <v>46.996000000000002</v>
+        <v>1.69</v>
       </c>
       <c r="E37" t="s">
         <v>140</v>
@@ -31700,15 +31698,14 @@
       <c r="Q37" s="25"/>
     </row>
     <row r="38" spans="1:17">
-      <c r="A38" s="27" t="s">
-        <v>148</v>
+      <c r="A38" s="5" t="s">
+        <v>149</v>
       </c>
       <c r="B38" s="5">
         <v>2050</v>
       </c>
-      <c r="C38" s="28">
-        <f>C50+E50*C46</f>
-        <v>48.579252851200003</v>
+      <c r="C38" s="5">
+        <v>1.69</v>
       </c>
       <c r="E38" t="s">
         <v>145</v>
@@ -31722,13 +31719,13 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B39" s="5">
-        <v>2050</v>
+        <v>2020</v>
       </c>
       <c r="C39" s="5">
-        <v>1.69</v>
+        <v>4.5359999999999996</v>
       </c>
       <c r="E39" t="s">
         <v>140</v>
@@ -31739,10 +31736,10 @@
         <v>150</v>
       </c>
       <c r="B40" s="5">
-        <v>2050</v>
+        <v>2030</v>
       </c>
       <c r="C40" s="5">
-        <v>14.148</v>
+        <v>6.6959999999999997</v>
       </c>
       <c r="E40" t="s">
         <v>140</v>
@@ -31750,27 +31747,27 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B41" s="5">
         <v>2050</v>
       </c>
       <c r="C41" s="5">
-        <v>6.73</v>
+        <v>14.148</v>
       </c>
       <c r="E41" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="42" spans="1:17">
-      <c r="A42" s="5" t="s">
-        <v>152</v>
+      <c r="A42" s="27" t="s">
+        <v>141</v>
       </c>
       <c r="B42" s="5">
-        <v>2050</v>
+        <v>2020</v>
       </c>
       <c r="C42" s="5">
-        <v>7.5</v>
+        <v>74.3</v>
       </c>
       <c r="E42" t="s">
         <v>140</v>
@@ -31778,13 +31775,13 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="5" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="B43" s="5">
-        <v>2050</v>
+        <v>2030</v>
       </c>
       <c r="C43" s="5">
-        <v>35</v>
+        <v>57.9</v>
       </c>
       <c r="E43" t="s">
         <v>140</v>
@@ -31795,13 +31792,13 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="5" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="B44" s="5">
         <v>2050</v>
       </c>
       <c r="C44" s="5">
-        <v>82.5</v>
+        <v>45.1</v>
       </c>
       <c r="E44" t="s">
         <v>140</v>
@@ -31809,13 +31806,13 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="5" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B45" s="5">
-        <v>2050</v>
+        <v>2020</v>
       </c>
       <c r="C45" s="5">
-        <v>50.29</v>
+        <v>7.5</v>
       </c>
       <c r="E45" t="s">
         <v>140</v>
@@ -31823,13 +31820,13 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="5" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B46" s="5">
-        <v>2050</v>
-      </c>
-      <c r="C46" s="28">
-        <v>168</v>
+        <v>2030</v>
+      </c>
+      <c r="C46" s="5">
+        <v>7.5</v>
       </c>
       <c r="E46" t="s">
         <v>145</v>
@@ -31837,52 +31834,52 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="5" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B47" s="5">
         <v>2050</v>
       </c>
       <c r="C47" s="5">
-        <v>15</v>
+        <v>7.5</v>
       </c>
       <c r="E47" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="48" spans="1:17">
-      <c r="A48" s="27" t="s">
-        <v>160</v>
+      <c r="A48" s="5" t="s">
+        <v>153</v>
       </c>
       <c r="B48" s="5">
         <v>2020</v>
       </c>
       <c r="C48" s="5">
-        <v>20.05</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="27" t="s">
-        <v>160</v>
+      <c r="A49" s="5" t="s">
+        <v>153</v>
       </c>
       <c r="B49" s="5">
         <v>2030</v>
       </c>
       <c r="C49" s="5">
-        <v>14.47</v>
+        <v>45</v>
       </c>
       <c r="E49" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="27" t="s">
-        <v>160</v>
+      <c r="A50" s="5" t="s">
+        <v>153</v>
       </c>
       <c r="B50" s="5">
         <v>2050</v>
       </c>
       <c r="C50" s="5">
-        <v>14.65</v>
+        <v>35</v>
       </c>
       <c r="E50">
         <v>0.20195983840000001</v>
@@ -32591,7 +32588,11 @@
       <c r="H97" s="25"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C50" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <autoFilter ref="A1:C50" xr:uid="{00000000-0009-0000-0000-000002000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C50">
+      <sortCondition ref="A1:A50"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <drawing r:id="rId1"/>
@@ -32601,13 +32602,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <tabColor theme="7" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="A1:L51"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38:C38"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D79" sqref="D79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
@@ -32646,7 +32647,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" hidden="1">
       <c r="A2" s="5" t="s">
         <v>188</v>
       </c>
@@ -32663,7 +32664,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" hidden="1">
       <c r="A3" s="5" t="s">
         <v>191</v>
       </c>
@@ -32680,7 +32681,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" hidden="1">
       <c r="A4" s="5" t="s">
         <v>192</v>
       </c>
@@ -32697,7 +32698,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" hidden="1">
       <c r="A5" s="5" t="s">
         <v>98</v>
       </c>
@@ -32718,7 +32719,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" hidden="1">
       <c r="A6" s="5" t="s">
         <v>115</v>
       </c>
@@ -32732,7 +32733,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" hidden="1">
       <c r="A7" s="5" t="s">
         <v>195</v>
       </c>
@@ -32746,7 +32747,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" hidden="1">
       <c r="A8" s="5" t="s">
         <v>57</v>
       </c>
@@ -32760,7 +32761,7 @@
         <v>1800000</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" hidden="1">
       <c r="A9" s="5" t="s">
         <v>51</v>
       </c>
@@ -32777,7 +32778,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" hidden="1">
       <c r="A10" s="5" t="s">
         <v>111</v>
       </c>
@@ -32792,7 +32793,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" hidden="1">
       <c r="A11" s="5" t="s">
         <v>195</v>
       </c>
@@ -32806,7 +32807,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" hidden="1">
       <c r="A12" s="5" t="s">
         <v>195</v>
       </c>
@@ -32820,7 +32821,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" hidden="1">
       <c r="A13" s="44" t="s">
         <v>107</v>
       </c>
@@ -32834,7 +32835,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" hidden="1">
       <c r="A14" s="44" t="s">
         <v>107</v>
       </c>
@@ -32848,7 +32849,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" hidden="1">
       <c r="A15" s="5" t="s">
         <v>95</v>
       </c>
@@ -32863,7 +32864,7 @@
       </c>
       <c r="L15" s="48"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" hidden="1">
       <c r="A16" s="5" t="s">
         <v>103</v>
       </c>
@@ -32878,7 +32879,7 @@
       </c>
       <c r="L16" s="48"/>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" hidden="1">
       <c r="A17" s="5" t="s">
         <v>200</v>
       </c>
@@ -32893,7 +32894,7 @@
       </c>
       <c r="L17" s="48"/>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" hidden="1">
       <c r="A18" s="5" t="s">
         <v>83</v>
       </c>
@@ -32908,7 +32909,7 @@
       </c>
       <c r="L18" s="48"/>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" hidden="1">
       <c r="A19" s="5" t="s">
         <v>98</v>
       </c>
@@ -32930,7 +32931,7 @@
       </c>
       <c r="L19" s="48"/>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" hidden="1">
       <c r="A20" s="5" t="s">
         <v>92</v>
       </c>
@@ -32945,7 +32946,7 @@
       </c>
       <c r="L20" s="48"/>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" hidden="1">
       <c r="A21" s="5" t="s">
         <v>57</v>
       </c>
@@ -32960,7 +32961,7 @@
       </c>
       <c r="L21" s="48"/>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" hidden="1">
       <c r="A22" s="5" t="s">
         <v>51</v>
       </c>
@@ -32975,7 +32976,7 @@
       </c>
       <c r="L22" s="48"/>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" hidden="1">
       <c r="A23" s="5" t="s">
         <v>111</v>
       </c>
@@ -33006,7 +33007,7 @@
         <v>408000</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" hidden="1">
       <c r="A24" s="5" t="s">
         <v>87</v>
       </c>
@@ -33021,7 +33022,7 @@
       </c>
       <c r="L24" s="48"/>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" hidden="1">
       <c r="A25" s="44" t="s">
         <v>107</v>
       </c>
@@ -33036,7 +33037,7 @@
       </c>
       <c r="L25" s="48"/>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" hidden="1">
       <c r="A26" s="5" t="s">
         <v>95</v>
       </c>
@@ -33053,7 +33054,7 @@
       <c r="I26" s="50"/>
       <c r="L26" s="48"/>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" hidden="1">
       <c r="A27" s="5" t="s">
         <v>204</v>
       </c>
@@ -33073,7 +33074,7 @@
       <c r="I27" s="50"/>
       <c r="L27" s="48"/>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" hidden="1">
       <c r="A28" s="5" t="s">
         <v>103</v>
       </c>
@@ -33088,7 +33089,7 @@
       </c>
       <c r="L28" s="48"/>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" hidden="1">
       <c r="A29" s="5" t="s">
         <v>206</v>
       </c>
@@ -33103,7 +33104,7 @@
       </c>
       <c r="L29" s="48"/>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" hidden="1">
       <c r="A30" s="52" t="s">
         <v>205</v>
       </c>
@@ -33118,7 +33119,7 @@
       </c>
       <c r="L30" s="48"/>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" hidden="1">
       <c r="A31" s="5" t="s">
         <v>201</v>
       </c>
@@ -33133,7 +33134,7 @@
       </c>
       <c r="L31" s="48"/>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" hidden="1">
       <c r="A32" s="5" t="s">
         <v>202</v>
       </c>
@@ -33151,7 +33152,7 @@
       </c>
       <c r="L32" s="48"/>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" hidden="1">
       <c r="A33" s="5" t="s">
         <v>204</v>
       </c>
@@ -33166,7 +33167,7 @@
       </c>
       <c r="L33" s="48"/>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" hidden="1">
       <c r="A34" s="5" t="s">
         <v>205</v>
       </c>
@@ -33184,7 +33185,7 @@
       </c>
       <c r="L34" s="48"/>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" hidden="1">
       <c r="A35" s="5" t="s">
         <v>83</v>
       </c>
@@ -33198,7 +33199,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" hidden="1">
       <c r="A36" s="5" t="s">
         <v>87</v>
       </c>
@@ -33208,11 +33209,12 @@
       <c r="C36" s="39">
         <v>2970000</v>
       </c>
+      <c r="E36" s="109"/>
       <c r="F36" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" hidden="1">
       <c r="A37" s="5" t="s">
         <v>111</v>
       </c>
@@ -33243,7 +33245,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" hidden="1">
       <c r="A38" s="5" t="s">
         <v>92</v>
       </c>
@@ -33257,7 +33259,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" hidden="1">
       <c r="A39" s="5" t="s">
         <v>209</v>
       </c>
@@ -33272,7 +33274,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" hidden="1">
       <c r="A40" s="5" t="s">
         <v>60</v>
       </c>
@@ -33317,7 +33319,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" hidden="1">
       <c r="A43" s="5" t="s">
         <v>209</v>
       </c>
@@ -33332,7 +33334,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" hidden="1">
       <c r="A44" s="5" t="s">
         <v>209</v>
       </c>
@@ -33347,7 +33349,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" hidden="1">
       <c r="A45" s="5" t="s">
         <v>67</v>
       </c>
@@ -33364,7 +33366,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" hidden="1">
       <c r="A46" s="5" t="s">
         <v>67</v>
       </c>
@@ -33381,7 +33383,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" hidden="1">
       <c r="A47" s="5" t="s">
         <v>67</v>
       </c>
@@ -33395,7 +33397,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:12" hidden="1">
       <c r="A48" s="5" t="s">
         <v>57</v>
       </c>
@@ -33412,7 +33414,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" hidden="1">
       <c r="A49" s="5" t="s">
         <v>60</v>
       </c>
@@ -33429,7 +33431,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" hidden="1">
       <c r="A50" s="5" t="s">
         <v>60</v>
       </c>
@@ -33443,7 +33445,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" hidden="1">
       <c r="A51" s="5" t="s">
         <v>51</v>
       </c>
@@ -33462,6 +33464,11 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:F51" xr:uid="{00000000-0009-0000-0000-000003000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="CCS CCGT"/>
+      </filters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A12:F51">
       <sortCondition ref="A1:A51"/>
     </sortState>
@@ -33484,8 +33491,8 @@
   </sheetPr>
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:D12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>

--- a/data/traderes/exported_Traderes.xlsx
+++ b/data/traderes/exported_Traderes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\toolbox-amiris-emlab\data\traderes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9FDE2BE-D67C-47E0-A9C9-32B59A852AC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCA7FFE4-5E98-49DA-B297-9D2B214A121F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-16515" windowWidth="29040" windowHeight="15840" tabRatio="917" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="917" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="explanation" sheetId="1" r:id="rId1"/>
@@ -35,8 +35,8 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId16"/>
-    <pivotCache cacheId="3" r:id="rId17"/>
+    <pivotCache cacheId="0" r:id="rId16"/>
+    <pivotCache cacheId="1" r:id="rId17"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -293,7 +293,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3400" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3406" uniqueCount="302">
   <si>
     <t>node</t>
   </si>
@@ -1228,6 +1228,27 @@
   <si>
     <t>eur/mw</t>
   </si>
+  <si>
+    <t>2024 H2 price</t>
+  </si>
+  <si>
+    <t>Eur/kg</t>
+  </si>
+  <si>
+    <t>agora making renewable hydrogen cost competitive</t>
+  </si>
+  <si>
+    <t>eur/kw to eur/mwh</t>
+  </si>
+  <si>
+    <t>Eur/mwh</t>
+  </si>
+  <si>
+    <t>RE H2 imports eur/gj</t>
+  </si>
+  <si>
+    <t>2050 entsoe price hydrogen</t>
+  </si>
 </sst>
 </file>
 
@@ -1873,7 +1894,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" textRotation="90" wrapText="1"/>
@@ -2023,7 +2044,6 @@
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Excel Built-in Bad" xfId="9" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
@@ -7200,16 +7220,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>507960</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>39960</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>603210</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>107996</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>150840</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>174960</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>273305</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>52496</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8424,7 +8444,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="PivotTable9" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="Values" itemPrintTitles="1" indent="0" compact="0" outline="1" outlineData="1" compactData="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="PivotTable9" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="Values" itemPrintTitles="1" indent="0" compact="0" outline="1" outlineData="1" compactData="0">
   <location ref="A115:C137" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="7">
     <pivotField axis="axisRow" compact="0" showAll="0">
@@ -8494,7 +8514,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0900-000000000000}" name="PivotTable2" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="Values" itemPrintTitles="1" indent="0" compact="0" outline="1" outlineData="1" compactData="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0900-000000000000}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="Values" itemPrintTitles="1" indent="0" compact="0" outline="1" outlineData="1" compactData="0">
   <location ref="G1:K19" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" compact="0" showAll="0">
@@ -30719,8 +30739,8 @@
   </sheetPr>
   <dimension ref="A1:W97"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" topLeftCell="F6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O32" sqref="O32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
@@ -31119,7 +31139,7 @@
       </c>
       <c r="L17" s="25"/>
       <c r="Q17" s="5" t="s">
-        <v>159</v>
+        <v>300</v>
       </c>
       <c r="R17" s="31">
         <v>20.63</v>
@@ -31567,7 +31587,9 @@
       </c>
       <c r="O30" s="25"/>
       <c r="P30" s="25"/>
-      <c r="Q30" s="25"/>
+      <c r="Q30" s="25" t="s">
+        <v>297</v>
+      </c>
     </row>
     <row r="31" spans="1:23">
       <c r="A31" s="5" t="s">
@@ -31582,9 +31604,17 @@
       <c r="E31" t="s">
         <v>145</v>
       </c>
-      <c r="O31" s="25"/>
+      <c r="O31" s="25" t="s">
+        <v>295</v>
+      </c>
       <c r="P31" s="25"/>
-      <c r="Q31" s="25"/>
+      <c r="Q31">
+        <f>250/8</f>
+        <v>31.25</v>
+      </c>
+      <c r="R31" t="s">
+        <v>298</v>
+      </c>
     </row>
     <row r="32" spans="1:23">
       <c r="A32" s="5" t="s">
@@ -31600,8 +31630,12 @@
         <v>137</v>
       </c>
       <c r="N32" s="25"/>
-      <c r="O32" s="25"/>
-      <c r="P32" s="25"/>
+      <c r="O32" s="25">
+        <v>10</v>
+      </c>
+      <c r="P32" s="25" t="s">
+        <v>296</v>
+      </c>
       <c r="Q32" s="25"/>
     </row>
     <row r="33" spans="1:17">
@@ -31618,8 +31652,13 @@
         <v>140</v>
       </c>
       <c r="N33" s="25"/>
-      <c r="O33" s="25"/>
-      <c r="P33" s="25"/>
+      <c r="O33" s="25">
+        <f>O32*Q31</f>
+        <v>312.5</v>
+      </c>
+      <c r="P33" s="25" t="s">
+        <v>299</v>
+      </c>
       <c r="Q33" s="25"/>
     </row>
     <row r="34" spans="1:17">
@@ -31639,7 +31678,9 @@
         <v>170</v>
       </c>
       <c r="N34" s="25"/>
-      <c r="O34" s="25"/>
+      <c r="O34" s="25" t="s">
+        <v>301</v>
+      </c>
       <c r="P34" s="25"/>
       <c r="Q34" s="25"/>
     </row>
@@ -31657,7 +31698,10 @@
         <v>145</v>
       </c>
       <c r="N35" s="25"/>
-      <c r="O35" s="25"/>
+      <c r="O35" s="25">
+        <f>T18/Q31</f>
+        <v>1.442304</v>
+      </c>
       <c r="P35" s="25"/>
       <c r="Q35" s="25"/>
     </row>
@@ -33209,7 +33253,6 @@
       <c r="C36" s="39">
         <v>2970000</v>
       </c>
-      <c r="E36" s="109"/>
       <c r="F36" t="s">
         <v>198</v>
       </c>
@@ -33491,7 +33534,7 @@
   </sheetPr>
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
